--- a/Data/EC/NIT-9008193686.xlsx
+++ b/Data/EC/NIT-9008193686.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29A30F16-42EB-41ED-9B70-7D5121FC36CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA2E7DB8-7FF6-4EDC-9C5C-664EA8C90BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CE8D1B93-945D-4C17-B6D1-D5F9A21B65B5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6C6F5A50-994F-4F08-9291-E8CC5D392AF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,37 +71,37 @@
     <t>RAFAEL ANTONIO ABONDANO CAPELLA</t>
   </si>
   <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>1143362836</t>
+  </si>
+  <si>
+    <t>JENNYFER KATERINE CASTELLON CASTRO</t>
+  </si>
+  <si>
+    <t>30763028</t>
+  </si>
+  <si>
+    <t>MENCY MAGDALENA ROSSINI CARMONA</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
     <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>1143362836</t>
-  </si>
-  <si>
-    <t>JENNYFER KATERINE CASTELLON CASTRO</t>
-  </si>
-  <si>
-    <t>30763028</t>
-  </si>
-  <si>
-    <t>MENCY MAGDALENA ROSSINI CARMONA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -200,7 +200,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -213,9 +215,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -415,23 +415,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -459,10 +459,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -515,7 +515,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F037E3E-887B-515D-71AC-567A2D51900E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{534EA0F9-8A90-5B00-84AD-74A0218DA22D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -866,7 +866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E2BCD4-6991-4DDB-B5C7-10094A6F3B88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DEF116-FDE1-4A53-B741-32585A59A092}">
   <dimension ref="B2:J42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1044,10 +1044,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>16619</v>
+        <v>52577</v>
       </c>
       <c r="G16" s="18">
-        <v>1133130</v>
+        <v>1314431</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1058,19 +1058,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>52577</v>
+        <v>55680</v>
       </c>
       <c r="G17" s="18">
-        <v>1133130</v>
+        <v>1392000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1081,19 +1081,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>52577</v>
+        <v>52000</v>
       </c>
       <c r="G18" s="18">
-        <v>1133130</v>
+        <v>1300000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1110,13 +1110,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>52577</v>
       </c>
       <c r="G19" s="18">
-        <v>1133130</v>
+        <v>1314431</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1127,19 +1127,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>52577</v>
+        <v>55680</v>
       </c>
       <c r="G20" s="18">
-        <v>1133130</v>
+        <v>1392000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1150,19 +1150,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>52577</v>
+        <v>52000</v>
       </c>
       <c r="G21" s="18">
-        <v>1133130</v>
+        <v>1300000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1185,7 +1185,7 @@
         <v>52577</v>
       </c>
       <c r="G22" s="18">
-        <v>1133130</v>
+        <v>1314431</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1196,19 +1196,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
-        <v>20416</v>
+        <v>55680</v>
       </c>
       <c r="G23" s="18">
-        <v>1071000</v>
+        <v>1392000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1219,19 +1219,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>55680</v>
+        <v>52000</v>
       </c>
       <c r="G24" s="18">
-        <v>1071000</v>
+        <v>1300000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1242,19 +1242,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F25" s="18">
-        <v>55680</v>
+        <v>52577</v>
       </c>
       <c r="G25" s="18">
-        <v>1071000</v>
+        <v>1314431</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1265,19 +1265,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F26" s="18">
         <v>55680</v>
       </c>
       <c r="G26" s="18">
-        <v>1071000</v>
+        <v>1392000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1288,19 +1288,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F27" s="18">
-        <v>55680</v>
+        <v>52000</v>
       </c>
       <c r="G27" s="18">
-        <v>1071000</v>
+        <v>1300000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1311,19 +1311,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F28" s="18">
-        <v>55680</v>
+        <v>52577</v>
       </c>
       <c r="G28" s="18">
-        <v>1071000</v>
+        <v>1314431</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1334,19 +1334,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F29" s="18">
         <v>55680</v>
       </c>
       <c r="G29" s="18">
-        <v>1071000</v>
+        <v>1392000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1357,16 +1357,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F30" s="18">
-        <v>19067</v>
+        <v>52000</v>
       </c>
       <c r="G30" s="18">
         <v>1300000</v>
@@ -1380,19 +1380,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F31" s="18">
-        <v>52000</v>
+        <v>52577</v>
       </c>
       <c r="G31" s="18">
-        <v>1300000</v>
+        <v>1314431</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1403,19 +1403,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F32" s="18">
-        <v>52000</v>
+        <v>55680</v>
       </c>
       <c r="G32" s="18">
-        <v>1300000</v>
+        <v>1392000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1426,13 +1426,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F33" s="18">
         <v>52000</v>
@@ -1449,19 +1449,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F34" s="18">
-        <v>52000</v>
+        <v>16619</v>
       </c>
       <c r="G34" s="18">
-        <v>1300000</v>
+        <v>1314431</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1472,19 +1472,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F35" s="18">
-        <v>52000</v>
+        <v>20416</v>
       </c>
       <c r="G35" s="18">
-        <v>1300000</v>
+        <v>1392000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1495,16 +1495,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D36" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="22" t="s">
-        <v>17</v>
-      </c>
       <c r="F36" s="24">
-        <v>52000</v>
+        <v>19067</v>
       </c>
       <c r="G36" s="24">
         <v>1300000</v>

--- a/Data/EC/NIT-9008193686.xlsx
+++ b/Data/EC/NIT-9008193686.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA2E7DB8-7FF6-4EDC-9C5C-664EA8C90BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A05B456-9D83-48C6-9CD1-3DB7544009CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6C6F5A50-994F-4F08-9291-E8CC5D392AF7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C01556EF-9F43-437F-A744-008EFD8B0B15}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -200,9 +200,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -215,7 +213,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -409,29 +409,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -450,19 +450,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -515,7 +521,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{534EA0F9-8A90-5B00-84AD-74A0218DA22D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02D5912F-CF63-EC83-5221-9FDA2770E70A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -866,7 +872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DEF116-FDE1-4A53-B741-32585A59A092}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB442D3-C2F8-452E-9CC2-738261AD79B2}">
   <dimension ref="B2:J42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -889,49 +895,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -939,7 +945,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -955,7 +961,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9008193686</v>
       </c>
@@ -971,7 +977,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>1017644</v>
       </c>
@@ -1040,18 +1046,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>52577</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>1314431</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1063,18 +1069,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>55680</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>1392000</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1086,18 +1092,18 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>52000</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1300000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1109,18 +1115,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>52577</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1314431</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1132,18 +1138,18 @@
       <c r="D20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>55680</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>1392000</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1155,18 +1161,18 @@
       <c r="D21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>52000</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>1300000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1178,18 +1184,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>52577</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>1314431</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1201,18 +1207,18 @@
       <c r="D23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>55680</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>1392000</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1224,18 +1230,18 @@
       <c r="D24" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>52000</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>1300000</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1247,18 +1253,18 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>52577</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>1314431</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1270,18 +1276,18 @@
       <c r="D26" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>55680</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>1392000</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1293,18 +1299,18 @@
       <c r="D27" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>52000</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>1300000</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1316,18 +1322,18 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>52577</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>1314431</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1339,18 +1345,18 @@
       <c r="D29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>55680</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>1392000</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1362,18 +1368,18 @@
       <c r="D30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>52000</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="19">
         <v>1300000</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1385,18 +1391,18 @@
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>52577</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="19">
         <v>1314431</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1408,18 +1414,18 @@
       <c r="D32" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>55680</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="19">
         <v>1392000</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1431,18 +1437,18 @@
       <c r="D33" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>52000</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="19">
         <v>1300000</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1454,18 +1460,18 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>16619</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="19">
         <v>1314431</v>
       </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1477,47 +1483,47 @@
       <c r="D35" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>20416</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="19">
         <v>1392000</v>
       </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="22" t="s">
+      <c r="B36" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="26">
         <v>19067</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G36" s="26">
         <v>1300000</v>
       </c>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="26"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="28"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="32"/>
+      <c r="C41" s="34"/>
       <c r="H41" s="1" t="s">
         <v>31</v>
       </c>
@@ -1525,10 +1531,10 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="32"/>
+      <c r="C42" s="34"/>
       <c r="H42" s="1" t="s">
         <v>32</v>
       </c>
